--- a/testCases/MDH_AgregarAlCarrito.xlsx
+++ b/testCases/MDH_AgregarAlCarrito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjtk951\Documents\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF3DFC2-A2D7-443C-A44A-00966130487D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3FB2D84-BBE6-4780-9E2C-6754C78E2EE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,6 +73,34 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Buscar un producto </t>
+  </si>
+  <si>
+    <t>M1 Helmet</t>
+  </si>
+  <si>
+    <t>Navegar a pagina de resultados</t>
+  </si>
+  <si>
+    <t>Verificar criterio de busqueda en el primer elemento de la lista de la pagina de resultados</t>
+  </si>
+  <si>
+    <t>Agregar articulo al carrito</t>
+  </si>
+  <si>
+    <t>Verificar que contador carrito se incrementa</t>
+  </si>
+  <si>
+    <t>Click al icono carrito de compras</t>
+  </si>
+  <si>
+    <t>Carrito se incremento en 1 y se despliega el articulo agregado</t>
+  </si>
+  <si>
+    <t>Nombre
+Precio</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -81,7 +109,105 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PaginaDeArticulo:
+      <t>Home Page:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+logoMdh; css="div.header.noMovible div.logo &gt; a &gt; img"
+campoBusqueda; css="div.header.noMovible [name='q']"
+botonBusqueda; css="div.header.noMovible div.busqueda button"</t>
+    </r>
+  </si>
+  <si>
+    <t>Pagina de resultado con productos es desplegada y el criterio de busqueda aparece al inicio de la pagina</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ResultsPage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+logoMDH; css="div.header.noMovible div.logo &gt; a &gt; img"
+categoriaBusqueda; css="div.desktopMaster div.bannerInicio &gt; span"
+listaProductos; css="[class*=resultado]"
+linkPrimerArticulo; css="div.desktopMaster a[href='producto/1209'] &gt; div"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ProductPage:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>logoMDH; css="div.header.noMovible div.logo &gt; a &gt; img"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nombrePrimerArticulo; css:"div.desktopMaster a[href='producto/1209'] &gt; div &gt; div.izquierda &gt; h3"
+descripcionPrimerArticulo; css:"div.desktopMaster a[href='producto/1209'] &gt; div &gt; div.derecha &gt; p"
+precioPrimerArticulo; css:"div.desktopMaster a[href='producto/1209'] &gt; div &gt; div.izquierda &gt; p.precio"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ProductPage:
 </t>
     </r>
     <r>
@@ -106,7 +232,30 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Home Page:</t>
+      <t>ProductPage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+botonAgregarCarrito; id="carrito" 
+iconoContadorCarrito; css="div.header.noMovible a span.contadorCarrito"
+iconoCarrito; css="div.desktopMaster &gt; div.header.noMovible a i.fa.fa-shopping-cart"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CartPage:</t>
     </r>
     <r>
       <rPr>
@@ -117,17 +266,11 @@
       </rPr>
       <t xml:space="preserve">
 logoMdh; css="div.header.noMovible div.logo &gt; a &gt; img"
-campoBusqueda; css="div.header.noMovible [name='q']"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar un producto </t>
-  </si>
-  <si>
-    <t>Pagina con productos es desplegada y el criterio de busqueda aparece al inicio de la pagina</t>
-  </si>
-  <si>
-    <t>M1 Helmet</t>
+nombreArticuloAgregado; css="div.desktopMaster table td.colModelo"
+precioArtAgregado; css="div.desktopMaster table tr.bordeDebajo td:nth-child(3)"
+iconoContadorCarrito; css="div.header.noMovible a span.contadorCarrito"
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -138,7 +281,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ResultadoBusqueda:</t>
+      <t>CartPage:</t>
     </r>
     <r>
       <rPr>
@@ -148,128 +291,9 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-logoMDH; css="div.header.noMovible div.logo &gt; a &gt; img"
-categoriaBusqueda; css="div.desktopMaster div.bannerInicio &gt; span"
-listaDeArticulos; css="div.desktopMaster div.busquedaContainer.menuVisible"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Navegar a pagina de resultados</t>
-  </si>
-  <si>
-    <t>Verificar criterio de busqueda en el primer elemento de la lista de la pagina de resultados</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ResultadoDeBusqueda:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nombreArticulo; css:"div.desktopMaster div.busquedaContainer.menuVisible &gt; a:nth-child(1) h3"
-descripcionArticulo; css:"div.desktopMaster div.busquedaContainer.menuVisible &gt; a:nth-child(1) div.derecha&gt; p"
-precioArticulo; css:"div.desktopMaster div.busquedaContainer.menuVisible &gt; a:nth-child(1) div.izquierda &gt; p.precio"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Agregar articulo al carrito</t>
-  </si>
-  <si>
-    <t>Verificar que contador carrito se incrementa</t>
-  </si>
-  <si>
-    <t>Click al icono carrito de compras</t>
-  </si>
-  <si>
-    <t>Carrito se incremento en 1 y se despliega el articulo agregado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PaginaDeArticulo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-botonAgregarCarrito; css:"#carrito"
-contadorCarrito;  css:"div.header.noMovible a span.contadorCarrito"
-iconoCarrito; css:"div.header.noMovible a[href='../../../carrito']"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PaginaCarritoCompras:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-campoCantidad;  css:"div.desktopMaster input.cantidadCarrito"
-botonSolicitarPedido;  css:"div.desktopMaster a[href='procesar']"
-botonActualizarCarrito;  css:"div.desktopMaster a.boton.refresh"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre
-Precio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PaginaCarritoCompras:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-nombreArticuloAgregado; css:"div.desktopMaster table td.colModelo"
-precioArtAgregado;  css:"div.desktopMaster table tr.bordeDebajo td:nth-child(3)"</t>
+nombreArticuloAgregado; css="div.desktopMaster table td.colModelo"
+precioArtAgregado; css="div.desktopMaster table tr.bordeDebajo td:nth-child(3)"
+iconoContadorCarrito; css="div.header.noMovible a span.contadorCarrito"</t>
     </r>
   </si>
 </sst>
@@ -692,7 +716,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -760,44 +784,44 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -811,36 +835,36 @@
         <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="319" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
@@ -857,7 +881,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{AD1F1A3E-E92F-4FBF-872C-3CA6D8B3F8B9}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{C4D39C9B-1B47-4C8A-9054-55809217F8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
